--- a/trunk/RESTITUTION/Avancement.xlsx
+++ b/trunk/RESTITUTION/Avancement.xlsx
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H39" sqref="C39:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
